--- a/contratos.xlsx
+++ b/contratos.xlsx
@@ -32,7 +32,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -42,12 +42,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -64,16 +58,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -369,11 +390,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A480"/>
+  <dimension ref="A1:A390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -386,454 +405,274 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>50003</v>
-      </c>
+      <c r="A2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>50004</v>
-      </c>
+      <c r="A3"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>50015</v>
-      </c>
+      <c r="A4"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>50017</v>
-      </c>
+      <c r="A5"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>50018</v>
-      </c>
+      <c r="A6"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>50034</v>
-      </c>
+      <c r="A7"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>50045</v>
-      </c>
+      <c r="A8"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>50037</v>
-      </c>
+      <c r="A9"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>50040</v>
-      </c>
+      <c r="A10"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>50052</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>50096</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>50101</v>
-      </c>
+      <c r="A13"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>50102</v>
-      </c>
+      <c r="A14"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>50103</v>
-      </c>
+      <c r="A15"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>50158</v>
-      </c>
+      <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>50214</v>
-      </c>
+      <c r="A17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>50256</v>
-      </c>
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>50266</v>
-      </c>
+      <c r="A19"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>50383</v>
-      </c>
+      <c r="A20"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>50440</v>
-      </c>
+      <c r="A21"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>50521</v>
-      </c>
+      <c r="A22"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>27060</v>
-      </c>
+      <c r="A23"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>50569</v>
-      </c>
+      <c r="A24"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>50570</v>
-      </c>
+      <c r="A25"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>50576</v>
-      </c>
+      <c r="A26"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>50630</v>
-      </c>
+      <c r="A27"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>50656</v>
-      </c>
+      <c r="A28"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>50688</v>
-      </c>
+      <c r="A29"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>50724</v>
-      </c>
+      <c r="A30"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>50725</v>
-      </c>
+      <c r="A31"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>50745</v>
-      </c>
+      <c r="A32"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>50785</v>
-      </c>
+      <c r="A33"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>50834</v>
-      </c>
+      <c r="A34"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>50848</v>
-      </c>
+      <c r="A35"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>50876</v>
-      </c>
+      <c r="A36"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>50885</v>
-      </c>
+      <c r="A37"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>50886</v>
-      </c>
+      <c r="A38"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>50899</v>
-      </c>
+      <c r="A39"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>50930</v>
-      </c>
+      <c r="A40"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>50933</v>
-      </c>
+      <c r="A41"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>50946</v>
-      </c>
+      <c r="A42"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>51049</v>
-      </c>
+      <c r="A43"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>51136</v>
-      </c>
+      <c r="A44"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>51137</v>
-      </c>
+      <c r="A45"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>51145</v>
-      </c>
+      <c r="A46"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>51180</v>
-      </c>
+      <c r="A47"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>51208</v>
-      </c>
+      <c r="A48"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>51209</v>
-      </c>
+      <c r="A49"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>51210</v>
-      </c>
+      <c r="A50"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>51275</v>
-      </c>
+      <c r="A51"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>51279</v>
-      </c>
+      <c r="A52"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>51287</v>
-      </c>
+      <c r="A53"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>51296</v>
-      </c>
+      <c r="A54"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>51436</v>
-      </c>
+      <c r="A55"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>51461</v>
-      </c>
+      <c r="A56"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>51503</v>
-      </c>
+      <c r="A57"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>51524</v>
-      </c>
+      <c r="A58"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>51525</v>
-      </c>
+      <c r="A59"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>51557</v>
-      </c>
+      <c r="A60"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>51560</v>
-      </c>
+      <c r="A61"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>51653</v>
-      </c>
+      <c r="A62"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>51659</v>
-      </c>
+      <c r="A63"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>51693</v>
-      </c>
+      <c r="A64"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>51703</v>
-      </c>
+      <c r="A65"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>51721</v>
-      </c>
+      <c r="A66"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>51770</v>
-      </c>
+      <c r="A67"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>51784</v>
-      </c>
+      <c r="A68"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>51802</v>
-      </c>
+      <c r="A69"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>51807</v>
-      </c>
+      <c r="A70"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>51809</v>
-      </c>
+      <c r="A71"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>51847</v>
-      </c>
+      <c r="A72"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>51856</v>
-      </c>
+      <c r="A73"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>50020</v>
-      </c>
+      <c r="A74"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>50133</v>
-      </c>
+      <c r="A75"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>50189</v>
-      </c>
+      <c r="A76"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>50195</v>
-      </c>
+      <c r="A77"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>50204</v>
-      </c>
+      <c r="A78"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>50224</v>
-      </c>
+      <c r="A79"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>50216</v>
-      </c>
+      <c r="A80"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>51613</v>
-      </c>
+      <c r="A81"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>50046</v>
-      </c>
+      <c r="A82"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>50108</v>
-      </c>
+      <c r="A83"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>50174</v>
-      </c>
+      <c r="A84"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>50252</v>
-      </c>
+      <c r="A85"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>50289</v>
-      </c>
+      <c r="A86"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>50290</v>
-      </c>
+      <c r="A87"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>50293</v>
-      </c>
+      <c r="A88"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>50305</v>
-      </c>
+      <c r="A89"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>50316</v>
-      </c>
+      <c r="A90"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>26825</v>
-      </c>
+      <c r="A91"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92"/>
@@ -1731,276 +1570,6 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390"/>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391"/>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393"/>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394"/>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395"/>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396"/>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397"/>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398"/>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399"/>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408"/>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410"/>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420"/>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422"/>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423"/>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424"/>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425"/>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426"/>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427"/>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428"/>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429"/>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430"/>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431"/>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432"/>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434"/>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435"/>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436"/>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437"/>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438"/>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439"/>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440"/>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441"/>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442"/>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443"/>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444"/>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445"/>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446"/>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447"/>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448"/>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450"/>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451"/>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452"/>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453"/>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454"/>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455"/>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456"/>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458"/>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460"/>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462"/>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463"/>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464"/>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465"/>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466"/>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467"/>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468"/>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469"/>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470"/>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471"/>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472"/>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473"/>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474"/>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475"/>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476"/>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477"/>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478"/>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479"/>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
